--- a/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/გურია/ლანჩხუთის მუნიციპალიტეტი.xlsx
+++ b/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/გურია/ლანჩხუთის მუნიციპალიტეტი.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asalukvadze\Desktop\ბაზრები\საერთო სარგებლობის საავტომობილო გზების სიგრძე\გურია\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ტრანსპორტი და დასაწყობება ქარ. EN\საერთო სარგებლობის საავტომობილო გზების სიგრძე\გურია\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6492B1-E84C-40AB-B36D-74F72C917C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="0" windowWidth="13530" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14250" yWindow="0" windowWidth="13530" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="ლანჩხუთის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -130,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,17 +141,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -194,16 +182,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -214,6 +199,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="14" customWidth="1"/>
-    <col min="2" max="5" width="18.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.5703125" style="13" customWidth="1"/>
+    <col min="2" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,7 +500,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -522,8 +508,9 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>2017</v>
@@ -534,49 +521,58 @@
       <c r="D3" s="6">
         <v>2019</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>51.5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>51.5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>51.5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="F4" s="14">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>26</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>26</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>26</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="F5" s="14">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/გურია/ლანჩხუთის მუნიციპალიტეტი.xlsx
+++ b/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/გურია/ლანჩხუთის მუნიციპალიტეტი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ტრანსპორტი და დასაწყობება ქარ. EN\საერთო სარგებლობის საავტომობილო გზების სიგრძე\გურია\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fqavtaradze\Desktop\რეგიონული სტატისტიკა\საერთო სარგებლობის საავტომობილო გზების სიგრძე 2022\მუნიციპალიტეტები\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,10 +488,11 @@
   <cols>
     <col min="1" max="1" width="28.5703125" style="13" customWidth="1"/>
     <col min="2" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,7 +501,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -509,8 +510,9 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>2017</v>
@@ -527,8 +529,11 @@
       <c r="F3" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -547,8 +552,11 @@
       <c r="F4" s="14">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="14">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -567,11 +575,14 @@
       <c r="F5" s="14">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="14">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
